--- a/Source/GraduateThesisManagement/GraduateThesis.Web/wwwroot/reports/student_export.xlsx
+++ b/Source/GraduateThesisManagement/GraduateThesis.Web/wwwroot/reports/student_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUFI_GRADUATE-THESIS\HUFI_graduate-thesis-management\Source\GraduateThesisManagement\GraduateThesis.Web\wwwroot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0576E52B-946B-46A2-A29D-8D85555FFDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EF0039-A227-4D4C-9656-72AC255D8602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9618D36F-91D3-4472-B248-079CF11FD3FC}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>{{Items.Birthday}}</t>
   </si>
   <si>
-    <t>DANH SÁCH SINH VIÊN CỦA KHOA CÔNG NGHỆ THÔNG TIN</t>
-  </si>
-  <si>
     <t>Mã sinh viên</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>{{Items.Email}}</t>
+  </si>
+  <si>
+    <t>{{Name}}</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -539,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.6" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -553,14 +553,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -583,10 +583,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
